--- a/data/trans_orig/P37A$medicoedad-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37A$medicoedad-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42865</v>
+        <v>43981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71149</v>
+        <v>71874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07992642615343741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0617638456534066</v>
+        <v>0.0633719569649851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1025186642074817</v>
+        <v>0.1035626986253462</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -765,19 +765,19 @@
         <v>70633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55587</v>
+        <v>56088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87299</v>
+        <v>86760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1026124771450942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08075395827917201</v>
+        <v>0.08148114923297534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1268233853725782</v>
+        <v>0.1260408559722733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -786,19 +786,19 @@
         <v>126103</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106247</v>
+        <v>105974</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147848</v>
+        <v>148559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09122299933570603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07685881266643814</v>
+        <v>0.07666158245701685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.106953435947037</v>
+        <v>0.1074677272879947</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20973</v>
+        <v>22090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43737</v>
+        <v>43380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04553972300532539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03021969683200433</v>
+        <v>0.0318295951474702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06302106225449895</v>
+        <v>0.06250645768945259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>19867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12714</v>
+        <v>12213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29138</v>
+        <v>29601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02886141777460977</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01847077274631385</v>
+        <v>0.01774233154942141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04233014542500142</v>
+        <v>0.04300234777712962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -857,19 +857,19 @@
         <v>51472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39386</v>
+        <v>38873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67878</v>
+        <v>67099</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03723472114915031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02849170314295566</v>
+        <v>0.02812061459725754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04910322227240448</v>
+        <v>0.04853907884733756</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7022</v>
+        <v>6760</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00288224576855153</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01011867935486264</v>
+        <v>0.009741164094958763</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6170</v>
+        <v>6881</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00179505458473754</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008964105081484562</v>
+        <v>0.009995924182229089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -928,19 +928,19 @@
         <v>3236</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9346</v>
+        <v>9116</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002340876326351619</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006876991038263203</v>
+        <v>0.0006884946304775352</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00676052766720391</v>
+        <v>0.006594398615211302</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5630</v>
+        <v>5509</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001438860741691141</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008178882658485731</v>
+        <v>0.008003864691926058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4957</v>
+        <v>5866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007164841370402027</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003585806320628731</v>
+        <v>0.004243239343273662</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>6786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2769</v>
+        <v>2178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16893</v>
+        <v>15049</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009778405001925602</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003989648167873903</v>
+        <v>0.003138410133393949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02434096767785414</v>
+        <v>0.02168365190177568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1041,19 +1041,19 @@
         <v>4808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1904</v>
+        <v>1858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11321</v>
+        <v>10756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006984895404387815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002766282944649474</v>
+        <v>0.00269912237954575</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01644700309517431</v>
+        <v>0.01562594017299927</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1062,19 +1062,19 @@
         <v>11594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5864</v>
+        <v>5803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20830</v>
+        <v>21712</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00838737023719017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004241695322052106</v>
+        <v>0.004197644012268151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01506837676358018</v>
+        <v>0.0157065952846312</v>
       </c>
     </row>
     <row r="9">
@@ -1091,19 +1091,19 @@
         <v>10965</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5922</v>
+        <v>5125</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19878</v>
+        <v>18842</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01579878389233133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008533712475365898</v>
+        <v>0.007384007769019583</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02864165373557423</v>
+        <v>0.02714955189499214</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1112,19 +1112,19 @@
         <v>4569</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1676</v>
+        <v>1687</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9912</v>
+        <v>10311</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006637805614836964</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002434249684012217</v>
+        <v>0.002450533595875269</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01439952911990769</v>
+        <v>0.01497870137106133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1133,19 +1133,19 @@
         <v>15534</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9477</v>
+        <v>8792</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25407</v>
+        <v>24193</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01123705291628144</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006855446186373008</v>
+        <v>0.006359946726859947</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01837905632327393</v>
+        <v>0.01750148471161166</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>62418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47881</v>
+        <v>48295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79017</v>
+        <v>77847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06489696024072525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04978314677029778</v>
+        <v>0.05021299910185312</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08215581658920133</v>
+        <v>0.08093905740360091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -1187,19 +1187,19 @@
         <v>93304</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74768</v>
+        <v>74663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112781</v>
+        <v>113663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09634900467859392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07720837803827488</v>
+        <v>0.0771001790106584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1164616838000511</v>
+        <v>0.1173725841733539</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1208,19 +1208,19 @@
         <v>155722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130535</v>
+        <v>133520</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180277</v>
+        <v>181330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08067669858679975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06762780715073588</v>
+        <v>0.06917420381149933</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09339823076120958</v>
+        <v>0.09394392248427744</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>27848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18875</v>
+        <v>18850</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39550</v>
+        <v>42845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02895433069808165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0196249024375574</v>
+        <v>0.01959878188961956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0411211752557599</v>
+        <v>0.04454687005657233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1258,19 +1258,19 @@
         <v>28360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18846</v>
+        <v>20082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40465</v>
+        <v>41468</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02928558025775359</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01946064224536363</v>
+        <v>0.02073760285089437</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04178582603017716</v>
+        <v>0.04282118482896239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1279,19 +1279,19 @@
         <v>56208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42263</v>
+        <v>43215</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73160</v>
+        <v>73286</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02912052121040912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02189549294072186</v>
+        <v>0.02238882459451121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0379027131405948</v>
+        <v>0.0379681044228456</v>
       </c>
     </row>
     <row r="12">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5790</v>
+        <v>5346</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001101884365235267</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.005978669781899893</v>
+        <v>0.005520919312235606</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7657</v>
+        <v>5333</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0005528240622128906</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003966730979955173</v>
+        <v>0.002762942469104335</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6627</v>
+        <v>7562</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001363070550867496</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006843436390909964</v>
+        <v>0.007808730419140892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6010</v>
+        <v>6600</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0006838632281096402</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003113747684412131</v>
+        <v>0.003419366183114173</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>11183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6315</v>
+        <v>5925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20743</v>
+        <v>18613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01162689044762088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006565719549389975</v>
+        <v>0.006159975281422682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02156729571193913</v>
+        <v>0.01935197250373223</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1455,19 +1455,19 @@
         <v>6154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2223</v>
+        <v>2947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13150</v>
+        <v>13588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006354570422947651</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002295256488838583</v>
+        <v>0.00304273252952258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01357971298466423</v>
+        <v>0.0140317725569234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1476,19 +1476,19 @@
         <v>17336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10403</v>
+        <v>10500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26753</v>
+        <v>27056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008981725977296537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005389529085865035</v>
+        <v>0.005439613047677884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01386035096225371</v>
+        <v>0.0140170589073931</v>
       </c>
     </row>
     <row r="15">
@@ -1505,19 +1505,19 @@
         <v>31771</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22275</v>
+        <v>21536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45835</v>
+        <v>46707</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03303311275445785</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02315989110775978</v>
+        <v>0.02239128475326475</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04765552078978741</v>
+        <v>0.04856235169009605</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -1526,19 +1526,19 @@
         <v>28480</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19077</v>
+        <v>18177</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42423</v>
+        <v>40921</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02940954521585037</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01969985004118447</v>
+        <v>0.01877049710086313</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04380776304543841</v>
+        <v>0.04225669356716243</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>54</v>
@@ -1547,19 +1547,19 @@
         <v>60251</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46990</v>
+        <v>45401</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>80024</v>
+        <v>76759</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0312151403885753</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02434455330340795</v>
+        <v>0.02352154834366698</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04145897001580625</v>
+        <v>0.03976748286930706</v>
       </c>
     </row>
     <row r="16">
@@ -1580,19 +1580,19 @@
         <v>33610</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23875</v>
+        <v>23710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47037</v>
+        <v>46743</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04953488917700399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03518776556091663</v>
+        <v>0.0349442903839621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06932380660956637</v>
+        <v>0.06889086124101283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1601,19 +1601,19 @@
         <v>59711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45577</v>
+        <v>45697</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76081</v>
+        <v>74403</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08731646427266636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06664891280593505</v>
+        <v>0.06682462436858878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1112560643206038</v>
+        <v>0.1088008820067884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1622,19 +1622,19 @@
         <v>93320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75037</v>
+        <v>77603</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112645</v>
+        <v>114167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06849961365158823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05507886218836118</v>
+        <v>0.05696261025019765</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08268423040005095</v>
+        <v>0.08380187493902079</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>25435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17328</v>
+        <v>17126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37007</v>
+        <v>37259</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03748607007975573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02553829193731969</v>
+        <v>0.0252407366110176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0545417507765551</v>
+        <v>0.05491336303534718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1672,19 +1672,19 @@
         <v>17983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11732</v>
+        <v>11029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28573</v>
+        <v>27136</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02629633323349668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01715584992050316</v>
+        <v>0.01612833629314616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04178267008925492</v>
+        <v>0.03968131005145193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1693,19 +1693,19 @@
         <v>43417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32215</v>
+        <v>32342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57467</v>
+        <v>58853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03186930382014128</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02364633606820238</v>
+        <v>0.02374019054048008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04218216522554655</v>
+        <v>0.04319977287093294</v>
       </c>
     </row>
     <row r="18">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10680</v>
+        <v>8815</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004033249666263337</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01574050280161932</v>
+        <v>0.0129912382653769</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5872</v>
+        <v>5441</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001434170752576527</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.008586314266328107</v>
+        <v>0.007957156210758451</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1764,19 +1764,19 @@
         <v>3717</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11631</v>
+        <v>10452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002728623923134087</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0007241385591635445</v>
+        <v>0.0007156559999948051</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008537426487611147</v>
+        <v>0.007672337907119062</v>
       </c>
     </row>
     <row r="19">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6650</v>
+        <v>6027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00266758245353222</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009801592944285096</v>
+        <v>0.008882948838349026</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5439</v>
+        <v>4887</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001434170752576527</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007953359214865008</v>
+        <v>0.007146013385636228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1835,19 +1835,19 @@
         <v>2791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8193</v>
+        <v>7430</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002048462869101804</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0005636689075476889</v>
+        <v>0.0005613697726390014</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006013604939201046</v>
+        <v>0.005453579588072269</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>5552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2515</v>
+        <v>2047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12215</v>
+        <v>11382</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008182662492054077</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003706477839709112</v>
+        <v>0.003016179188822603</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01800211951259469</v>
+        <v>0.0167744980555342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1885,19 +1885,19 @@
         <v>3746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9273</v>
+        <v>9451</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00547754446265645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001380550690558364</v>
+        <v>0.001369036948628698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01356048357440909</v>
+        <v>0.01382036168063114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1906,19 +1906,19 @@
         <v>9298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4806</v>
+        <v>4591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16940</v>
+        <v>16426</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00682480967705468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003527956378779284</v>
+        <v>0.00336992844705737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0124346424788071</v>
+        <v>0.0120573703264322</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>19488</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11331</v>
+        <v>11814</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30918</v>
+        <v>30872</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02872208894260907</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01670038893101413</v>
+        <v>0.01741226512181971</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04556696242080379</v>
+        <v>0.04549907952365017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -1956,19 +1956,19 @@
         <v>26558</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18226</v>
+        <v>17208</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39295</v>
+        <v>38608</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03883669635698303</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02665189755510302</v>
+        <v>0.02516442387964771</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05746195444407744</v>
+        <v>0.056456955320126</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -1977,19 +1977,19 @@
         <v>46046</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33521</v>
+        <v>33630</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>61926</v>
+        <v>61306</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03379918650396012</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02460563633444917</v>
+        <v>0.02468536001129628</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04545526544641979</v>
+        <v>0.04500031249370463</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>55946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43053</v>
+        <v>42961</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71792</v>
+        <v>70170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05937702826830465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0456933381046131</v>
+        <v>0.04559518370733533</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07619464890974829</v>
+        <v>0.07447283581545237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -2031,19 +2031,19 @@
         <v>104507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84761</v>
+        <v>84619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126468</v>
+        <v>124508</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1006219394106235</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08161031152106299</v>
+        <v>0.08147320654005409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1217662683923716</v>
+        <v>0.119879080858574</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -2052,19 +2052,19 @@
         <v>160453</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>137058</v>
+        <v>137428</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>182591</v>
+        <v>187833</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08100299875554387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06919221912340713</v>
+        <v>0.06937869340165954</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09217875862317786</v>
+        <v>0.09482530680524438</v>
       </c>
     </row>
     <row r="23">
@@ -2081,19 +2081,19 @@
         <v>27785</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19332</v>
+        <v>18620</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38635</v>
+        <v>38454</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02948881538099223</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0205169432719738</v>
+        <v>0.01976186813671355</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04100463371396849</v>
+        <v>0.04081210834381788</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -2102,19 +2102,19 @@
         <v>27944</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18327</v>
+        <v>19302</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39679</v>
+        <v>40101</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0269049335098088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01764529603530242</v>
+        <v>0.01858467375328766</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0382040696634029</v>
+        <v>0.03860991316393991</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>58</v>
@@ -2123,19 +2123,19 @@
         <v>55729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>43057</v>
+        <v>43766</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>71027</v>
+        <v>71084</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02813400695636233</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02173659718974828</v>
+        <v>0.02209485334673267</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0358571911252954</v>
+        <v>0.03588596026773642</v>
       </c>
     </row>
     <row r="24">
@@ -2152,19 +2152,19 @@
         <v>2647</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7969</v>
+        <v>7074</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002809100618245161</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0009004013910349465</v>
+        <v>0.0008939514400389094</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.008457516516631531</v>
+        <v>0.007507701682068288</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2173,19 +2173,19 @@
         <v>3936</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>988</v>
+        <v>1020</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9919</v>
+        <v>10005</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003789458990240381</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.000950824732032314</v>
+        <v>0.0009818027317155757</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009550198293615668</v>
+        <v>0.009633110067893131</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2194,19 +2194,19 @@
         <v>6583</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2794</v>
+        <v>2827</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12924</v>
+        <v>12373</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003323132546851579</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001410306582088361</v>
+        <v>0.001427255158267504</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.006524307346098579</v>
+        <v>0.006246291852420596</v>
       </c>
     </row>
     <row r="25">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5890</v>
+        <v>5326</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001860543670393638</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006251434630524821</v>
+        <v>0.005652181711424368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4412</v>
+        <v>5677</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0008484897922013699</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.004247809046918359</v>
+        <v>0.005465638808886917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2265,19 +2265,19 @@
         <v>2634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7873</v>
+        <v>7100</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001329892816867481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0004394730124920639</v>
+        <v>0.0004379418669407025</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003974734234175941</v>
+        <v>0.003584206359136513</v>
       </c>
     </row>
     <row r="26">
@@ -2294,19 +2294,19 @@
         <v>11334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6006</v>
+        <v>6265</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19634</v>
+        <v>19111</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01202862635220879</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006374061879587749</v>
+        <v>0.006649004732628434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02083814602319622</v>
+        <v>0.02028319104623636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2318,16 +2318,16 @@
         <v>980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8598</v>
+        <v>9002</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003059795736535152</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0009434430061826858</v>
+        <v>0.0009437309128041937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.00827789937653184</v>
+        <v>0.008667744589717337</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2336,19 +2336,19 @@
         <v>14512</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8222</v>
+        <v>8122</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23397</v>
+        <v>23441</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007325993692137531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004150822392461461</v>
+        <v>0.004100308238275637</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01181150419021673</v>
+        <v>0.01183393643080783</v>
       </c>
     </row>
     <row r="27">
@@ -2365,19 +2365,19 @@
         <v>28576</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19624</v>
+        <v>19924</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>39649</v>
+        <v>42135</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03032857579842586</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02082726982179638</v>
+        <v>0.0211453878545154</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04208009135394761</v>
+        <v>0.04471855287845443</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2386,19 +2386,19 @@
         <v>26214</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16619</v>
+        <v>16046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40111</v>
+        <v>38307</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02523980519867923</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01600150396018897</v>
+        <v>0.0154492706030114</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03862014893063626</v>
+        <v>0.03688306220083915</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>53</v>
@@ -2407,19 +2407,19 @@
         <v>54791</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>39835</v>
+        <v>42350</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>71265</v>
+        <v>73637</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02766037747386853</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02011019454375163</v>
+        <v>0.02137994754435702</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03597707224702398</v>
+        <v>0.037174865763022</v>
       </c>
     </row>
     <row r="28">
@@ -2440,19 +2440,19 @@
         <v>207444</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06331185263379324</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>310</v>
@@ -2461,19 +2461,19 @@
         <v>328155</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09711029986423836</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>527</v>
@@ -2482,19 +2482,19 @@
         <v>535599</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08047171932110088</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
     </row>
     <row r="29">
@@ -2511,19 +2511,19 @@
         <v>112673</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03438777897797791</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>94</v>
@@ -2532,19 +2532,19 @@
         <v>94153</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02786254673218759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>207</v>
@@ -2553,19 +2553,19 @@
         <v>206826</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0310748423013894</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
     </row>
     <row r="30">
@@ -2582,19 +2582,19 @@
         <v>7384</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002253504906167719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2603,19 +2603,19 @@
         <v>7219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002136367571967852</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2624,19 +2624,19 @@
         <v>14603</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002194032912520458</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
     </row>
     <row r="31">
@@ -2653,19 +2653,19 @@
         <v>3563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001087433842314305</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2674,19 +2674,19 @@
         <v>4172</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00123473881142692</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2695,19 +2695,19 @@
         <v>7735</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001162222296799086</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
     </row>
     <row r="32">
@@ -2724,19 +2724,19 @@
         <v>34855</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01063765081291071</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2745,19 +2745,19 @@
         <v>17885</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005292822955695911</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>52</v>
@@ -2766,19 +2766,19 @@
         <v>52740</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007924019240694658</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
     </row>
     <row r="33">
@@ -2795,19 +2795,19 @@
         <v>90800</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02771220758758085</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>79</v>
@@ -2816,19 +2816,19 @@
         <v>85822</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02539704821019888</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>167</v>
@@ -2837,19 +2837,19 @@
         <v>176622</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02653677411263829</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
     </row>
     <row r="34">
@@ -3110,19 +3110,19 @@
         <v>78299</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62864</v>
+        <v>62901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97789</v>
+        <v>97069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1113042993152483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08936302588621452</v>
+        <v>0.0894156110188828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1390092968968727</v>
+        <v>0.137986837623502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -3131,19 +3131,19 @@
         <v>78425</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63543</v>
+        <v>62197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98012</v>
+        <v>95877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1125094718935211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09115920221721609</v>
+        <v>0.08922873283857059</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1406103517444118</v>
+        <v>0.1375468371051676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -3152,19 +3152,19 @@
         <v>156724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131378</v>
+        <v>133788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182753</v>
+        <v>183296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1119041237788758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09380650128684903</v>
+        <v>0.09552733309390944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1304897499183924</v>
+        <v>0.1308774822337674</v>
       </c>
     </row>
     <row r="5">
@@ -3181,19 +3181,19 @@
         <v>24313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15531</v>
+        <v>14900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37169</v>
+        <v>36046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03456087825725393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02207737663386017</v>
+        <v>0.02118090679902388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05283627268255919</v>
+        <v>0.0512405062323123</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3202,19 +3202,19 @@
         <v>24914</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16218</v>
+        <v>16956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35758</v>
+        <v>37091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03574161644487164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02326702854769377</v>
+        <v>0.02432474711234725</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05129887977424253</v>
+        <v>0.05321148432700388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -3223,19 +3223,19 @@
         <v>49226</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36064</v>
+        <v>36303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64558</v>
+        <v>63577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03514854152045839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02575059595277511</v>
+        <v>0.02592114847615774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04609568610751139</v>
+        <v>0.04539553478572331</v>
       </c>
     </row>
     <row r="6">
@@ -3252,19 +3252,19 @@
         <v>2612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7903</v>
+        <v>7071</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003713370577144672</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001041331325256883</v>
+        <v>0.001021425130813508</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01123419671463254</v>
+        <v>0.01005116027085164</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3273,19 +3273,19 @@
         <v>4063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10691</v>
+        <v>9208</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005829534850987125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001506817242496672</v>
+        <v>0.001511857543717044</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01533742623539321</v>
+        <v>0.01320972382370455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -3294,19 +3294,19 @@
         <v>6676</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2842</v>
+        <v>2751</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13416</v>
+        <v>13407</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00476660322065903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002029390869354921</v>
+        <v>0.001964405853185032</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009579258741281011</v>
+        <v>0.009573007623769988</v>
       </c>
     </row>
     <row r="7">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8171</v>
+        <v>7508</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003020586125446379</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01172221632443542</v>
+        <v>0.01077133930078686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7754</v>
+        <v>7753</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001503370957156389</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005536229643793666</v>
+        <v>0.005535656767160797</v>
       </c>
     </row>
     <row r="8">
@@ -3386,19 +3386,19 @@
         <v>6065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2241</v>
+        <v>1955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14003</v>
+        <v>14475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008621803291840376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003186163494338189</v>
+        <v>0.002778876072743737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01990518536023713</v>
+        <v>0.02057645073643885</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3407,19 +3407,19 @@
         <v>4526</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1456</v>
+        <v>1136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11670</v>
+        <v>11035</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00649304850737878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002089082427566905</v>
+        <v>0.001629363678643526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01674204237060068</v>
+        <v>0.01583042729359696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -3428,19 +3428,19 @@
         <v>10591</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4800</v>
+        <v>5221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20123</v>
+        <v>21126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007562304245974125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003427622280188043</v>
+        <v>0.003728189869953951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01436840252033016</v>
+        <v>0.01508432280894828</v>
       </c>
     </row>
     <row r="9">
@@ -3457,19 +3457,19 @@
         <v>31775</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21756</v>
+        <v>21187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45799</v>
+        <v>45167</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04516962503090059</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03092707060152853</v>
+        <v>0.03011845044760685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06510447864796882</v>
+        <v>0.06420667480321003</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -3478,19 +3478,19 @@
         <v>13058</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7163</v>
+        <v>7054</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21619</v>
+        <v>21837</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0187329197509799</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0102768762500537</v>
+        <v>0.01011992224464705</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03101429650564391</v>
+        <v>0.03132760485977268</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -3499,19 +3499,19 @@
         <v>44833</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33164</v>
+        <v>33107</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>60886</v>
+        <v>61440</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03201185588605875</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02368008988405946</v>
+        <v>0.02363881866426642</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04347361495919224</v>
+        <v>0.04386936021581326</v>
       </c>
     </row>
     <row r="10">
@@ -3532,19 +3532,19 @@
         <v>98175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78482</v>
+        <v>78834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119528</v>
+        <v>120092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09644419458770442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07709783938730115</v>
+        <v>0.07744435875687987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1174205585675248</v>
+        <v>0.1179745865897148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -3553,19 +3553,19 @@
         <v>103721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85206</v>
+        <v>84464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125787</v>
+        <v>124813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004866615877472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08254876872888814</v>
+        <v>0.08183046163776642</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1218644858307222</v>
+        <v>0.1209216609105452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>180</v>
@@ -3574,19 +3574,19 @@
         <v>201896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175212</v>
+        <v>174296</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232744</v>
+        <v>231274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09847946428825859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08546392096251099</v>
+        <v>0.08501681408708478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1135263830552997</v>
+        <v>0.1128093413385874</v>
       </c>
     </row>
     <row r="11">
@@ -3603,19 +3603,19 @@
         <v>35162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24296</v>
+        <v>24192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49048</v>
+        <v>48850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03454215058582635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02386747438190239</v>
+        <v>0.02376529335367121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04818310182881936</v>
+        <v>0.04798868883363105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3624,19 +3624,19 @@
         <v>41584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30175</v>
+        <v>30758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55015</v>
+        <v>55108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04028754209073052</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02923373506884391</v>
+        <v>0.02979904588274571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05330004377779152</v>
+        <v>0.05338964668843941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -3645,19 +3645,19 @@
         <v>76746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60986</v>
+        <v>61291</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96222</v>
+        <v>96724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03743479541078821</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02974731897387698</v>
+        <v>0.02989604991558984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04693437436861284</v>
+        <v>0.04717962196193033</v>
       </c>
     </row>
     <row r="12">
@@ -3674,19 +3674,19 @@
         <v>6273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2128</v>
+        <v>2223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12791</v>
+        <v>12574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006162409825336809</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002090812234036237</v>
+        <v>0.002183905311195266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01256541778055598</v>
+        <v>0.01235198809386474</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3695,19 +3695,19 @@
         <v>10632</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5298</v>
+        <v>5177</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20152</v>
+        <v>19733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01030051033564755</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00513256049005368</v>
+        <v>0.005015251680637248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01952365350657978</v>
+        <v>0.01911813245283123</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -3716,19 +3716,19 @@
         <v>16905</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9619</v>
+        <v>9771</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28247</v>
+        <v>26965</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008245828338436385</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004691929074987617</v>
+        <v>0.004766229218257717</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0137780407512238</v>
+        <v>0.01315281655295652</v>
       </c>
     </row>
     <row r="13">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5256</v>
+        <v>5039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0009465241868868024</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005163537630660965</v>
+        <v>0.004950120511418518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7103</v>
+        <v>7078</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001969432803253321</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006881462099059454</v>
+        <v>0.006857225747987451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3787,19 +3787,19 @@
         <v>2996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8070</v>
+        <v>8854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001461530224859294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0004696565221098361</v>
+        <v>0.0004686705638279684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003936104249963594</v>
+        <v>0.004318632671219512</v>
       </c>
     </row>
     <row r="14">
@@ -3816,19 +3816,19 @@
         <v>11920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5989</v>
+        <v>5871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22264</v>
+        <v>21698</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01171016965187272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005883488686494978</v>
+        <v>0.005767973598515773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02187187967855163</v>
+        <v>0.02131583127903704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -3837,19 +3837,19 @@
         <v>9943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4982</v>
+        <v>4912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18882</v>
+        <v>19128</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009632953083715135</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004826210142002601</v>
+        <v>0.004758580992982822</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01829278251173832</v>
+        <v>0.01853148659823092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -3858,19 +3858,19 @@
         <v>21863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13983</v>
+        <v>13922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34894</v>
+        <v>33723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01066434888385766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006820666233093274</v>
+        <v>0.006790615809421841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01702050117919723</v>
+        <v>0.0164493506162451</v>
       </c>
     </row>
     <row r="15">
@@ -3887,19 +3887,19 @@
         <v>27878</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18780</v>
+        <v>18744</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39935</v>
+        <v>39782</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02738685640667892</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01844856879212003</v>
+        <v>0.01841359814062246</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03923096896730061</v>
+        <v>0.03908045901320053</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -3908,19 +3908,19 @@
         <v>21937</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13472</v>
+        <v>13638</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33200</v>
+        <v>34358</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0212532991479006</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01305240885143589</v>
+        <v>0.01321275520425952</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03216522362352937</v>
+        <v>0.03328703620353612</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>47</v>
@@ -3929,19 +3929,19 @@
         <v>49816</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36614</v>
+        <v>37982</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66025</v>
+        <v>67436</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0242987809207755</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0178591612289226</v>
+        <v>0.01852650299139313</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03220504748860448</v>
+        <v>0.03289346599408055</v>
       </c>
     </row>
     <row r="16">
@@ -3962,19 +3962,19 @@
         <v>57307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41645</v>
+        <v>42898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73772</v>
+        <v>75041</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0756405812465456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05496846668559636</v>
+        <v>0.05662181821023812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09737338512921191</v>
+        <v>0.09904810672268755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -3983,19 +3983,19 @@
         <v>72329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57871</v>
+        <v>56902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90657</v>
+        <v>89472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09306697008089321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07446389146658829</v>
+        <v>0.07321595377469019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1166500454816218</v>
+        <v>0.1151247180923268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -4004,19 +4004,19 @@
         <v>129636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106911</v>
+        <v>107422</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151448</v>
+        <v>153633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08446476685305812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06965831464759978</v>
+        <v>0.06999088165083256</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09867617498470108</v>
+        <v>0.1000997114085593</v>
       </c>
     </row>
     <row r="17">
@@ -4033,19 +4033,19 @@
         <v>27129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17482</v>
+        <v>17549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39215</v>
+        <v>40827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03580793017835465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02307524033003434</v>
+        <v>0.02316313635647396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05176047443090254</v>
+        <v>0.05388822856016555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -4054,19 +4054,19 @@
         <v>28568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19464</v>
+        <v>18449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41986</v>
+        <v>41077</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03675858864820249</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02504408398842687</v>
+        <v>0.02373911827266192</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05402357182604375</v>
+        <v>0.05285391064163534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -4075,19 +4075,19 @@
         <v>55697</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40984</v>
+        <v>41009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76826</v>
+        <v>71425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03628931429448353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0267033130203592</v>
+        <v>0.02671958771065846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05005605546671447</v>
+        <v>0.046536860772825</v>
       </c>
     </row>
     <row r="18">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13197</v>
+        <v>11857</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004387562039273342</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01741886626314725</v>
+        <v>0.0156509103843305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -4125,19 +4125,19 @@
         <v>4038</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10550</v>
+        <v>10121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00519584348972279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001280438034650945</v>
+        <v>0.001282896855899636</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01357435648086261</v>
+        <v>0.01302274479230202</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -4146,19 +4146,19 @@
         <v>7362</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2974</v>
+        <v>3042</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16092</v>
+        <v>16582</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.004796850825886951</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001937679431772206</v>
+        <v>0.001982172867474673</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01048483885804987</v>
+        <v>0.0108038902935012</v>
       </c>
     </row>
     <row r="19">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5398</v>
+        <v>4844</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00127294094552205</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.007125039782036549</v>
+        <v>0.00639394450499364</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6261</v>
+        <v>6285</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001610427993400257</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008056007851363525</v>
+        <v>0.008087119775283015</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7304</v>
+        <v>7256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001443833973250291</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004759078182346448</v>
+        <v>0.004727771444366587</v>
       </c>
     </row>
     <row r="20">
@@ -4246,19 +4246,19 @@
         <v>7414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3023</v>
+        <v>3139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17111</v>
+        <v>18360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00978615475889349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003990643745033311</v>
+        <v>0.004142769405829359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02258462548196245</v>
+        <v>0.02423422361314539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -4267,19 +4267,19 @@
         <v>10025</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4102</v>
+        <v>4334</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19328</v>
+        <v>20452</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01289878816917045</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005277785958911503</v>
+        <v>0.005576245444521373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02486927394898146</v>
+        <v>0.02631577745909613</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -4288,19 +4288,19 @@
         <v>17439</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10106</v>
+        <v>9498</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29611</v>
+        <v>28628</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01136229627612965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006584900074657664</v>
+        <v>0.006188673327703223</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01929334261662985</v>
+        <v>0.01865262483798847</v>
       </c>
     </row>
     <row r="21">
@@ -4317,19 +4317,19 @@
         <v>24728</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16286</v>
+        <v>16504</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38229</v>
+        <v>36466</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03263874544632862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02149565447304257</v>
+        <v>0.02178328929079154</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05045864723376824</v>
+        <v>0.04813276237908366</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -4338,19 +4338,19 @@
         <v>16056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8858</v>
+        <v>9064</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26866</v>
+        <v>25928</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02065979413003253</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01139732533242552</v>
+        <v>0.01166321833279631</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03456865715708894</v>
+        <v>0.03336252297696547</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -4359,19 +4359,19 @@
         <v>40784</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29347</v>
+        <v>29357</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55397</v>
+        <v>57729</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02657297411578024</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01912094788970517</v>
+        <v>0.01912772172904074</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03609417519991454</v>
+        <v>0.0376135407852779</v>
       </c>
     </row>
     <row r="22">
@@ -4392,19 +4392,19 @@
         <v>81248</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63296</v>
+        <v>64627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100259</v>
+        <v>100955</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08572858559846264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06678582146788833</v>
+        <v>0.0681908777781939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.105787243028589</v>
+        <v>0.1065224070157672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>107</v>
@@ -4413,19 +4413,19 @@
         <v>114336</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>92821</v>
+        <v>94321</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138172</v>
+        <v>135033</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1086945066870508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08824101063395141</v>
+        <v>0.0896674147779615</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1313544421122206</v>
+        <v>0.1283705812029218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -4434,19 +4434,19 @@
         <v>195584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169042</v>
+        <v>167649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223121</v>
+        <v>223137</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09780969567595481</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08453605130093154</v>
+        <v>0.08383942738757889</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1115807745957594</v>
+        <v>0.1115884872015182</v>
       </c>
     </row>
     <row r="23">
@@ -4463,19 +4463,19 @@
         <v>38555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27175</v>
+        <v>27275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52772</v>
+        <v>53090</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04068056321772875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02867390405030807</v>
+        <v>0.02877871156569003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05568155886871799</v>
+        <v>0.05601775621544566</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -4484,19 +4484,19 @@
         <v>46340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32787</v>
+        <v>33047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>60730</v>
+        <v>60764</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04405375144389092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03116910166005633</v>
+        <v>0.03141630378807575</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05773312679994528</v>
+        <v>0.05776581387080636</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -4505,19 +4505,19 @@
         <v>84895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66937</v>
+        <v>67365</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106347</v>
+        <v>105851</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04245501232931329</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03347467500050711</v>
+        <v>0.03368839999069854</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0531832658614227</v>
+        <v>0.05293492122392049</v>
       </c>
     </row>
     <row r="24">
@@ -4534,19 +4534,19 @@
         <v>4886</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1077</v>
+        <v>1813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12829</v>
+        <v>12976</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005155845402871596</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001136048867679605</v>
+        <v>0.001912522711704032</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01353605847848891</v>
+        <v>0.01369192866933524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -4555,19 +4555,19 @@
         <v>7619</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3043</v>
+        <v>2934</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15379</v>
+        <v>16504</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007243507298588848</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002892385027907981</v>
+        <v>0.002788821769598339</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01462008569565916</v>
+        <v>0.01569002226154091</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -4576,19 +4576,19 @@
         <v>12506</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6812</v>
+        <v>7509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23262</v>
+        <v>23567</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006254049697376407</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003406563811941403</v>
+        <v>0.003754996536179368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01163298541188667</v>
+        <v>0.01178563342257687</v>
       </c>
     </row>
     <row r="25">
@@ -4652,19 +4652,19 @@
         <v>21261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13213</v>
+        <v>13467</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33294</v>
+        <v>32532</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02243304998242956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01394194556649257</v>
+        <v>0.01421012017751588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0351294414025364</v>
+        <v>0.03432578642694218</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4673,19 +4673,19 @@
         <v>6331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2619</v>
+        <v>1924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13162</v>
+        <v>14582</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006018177222307451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002489866022732536</v>
+        <v>0.001828749126551852</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01251284846075724</v>
+        <v>0.01386262009771436</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -4694,19 +4694,19 @@
         <v>27591</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18827</v>
+        <v>17993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40932</v>
+        <v>40130</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01379808672717376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009415281684766748</v>
+        <v>0.008997899215965765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02046970149289361</v>
+        <v>0.020068825125243</v>
       </c>
     </row>
     <row r="27">
@@ -4723,19 +4723,19 @@
         <v>20007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11564</v>
+        <v>12276</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30521</v>
+        <v>31103</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02111020726841143</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0122012970791214</v>
+        <v>0.01295345697233419</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0322041820966515</v>
+        <v>0.03281842307198924</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -4744,19 +4744,19 @@
         <v>17204</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10146</v>
+        <v>10218</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27189</v>
+        <v>26506</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01635529821152964</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009645391834977516</v>
+        <v>0.00971354310373739</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02584772261852993</v>
+        <v>0.02519783936136722</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>36</v>
@@ -4765,19 +4765,19 @@
         <v>37211</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26108</v>
+        <v>26603</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>51928</v>
+        <v>51774</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0186089106949769</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0130564159467308</v>
+        <v>0.01330383286985025</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02596877156015411</v>
+        <v>0.02589176069735647</v>
       </c>
     </row>
     <row r="28">
@@ -4798,19 +4798,19 @@
         <v>315030</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>279539</v>
+        <v>279230</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>352995</v>
+        <v>352823</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0919317106935123</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08157477656124505</v>
+        <v>0.08148469719695309</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1030108647035812</v>
+        <v>0.1029604769066043</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>341</v>
@@ -4819,19 +4819,19 @@
         <v>368811</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>334698</v>
+        <v>329953</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>404239</v>
+        <v>406886</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1036476993639989</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09406107068018743</v>
+        <v>0.0927273353634392</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1136043484719666</v>
+        <v>0.1143481543220087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>625</v>
@@ -4840,19 +4840,19 @@
         <v>683840</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>632604</v>
+        <v>631493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>732213</v>
+        <v>734098</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09790001191937905</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09056488623935383</v>
+        <v>0.09040590729409177</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1048251879597027</v>
+        <v>0.1050950438484197</v>
       </c>
     </row>
     <row r="29">
@@ -4869,19 +4869,19 @@
         <v>125158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>104911</v>
+        <v>104613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>151095</v>
+        <v>151591</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03652353725516413</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03061496322051569</v>
+        <v>0.03052801165694937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04409251885017718</v>
+        <v>0.04423705375002228</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -4890,19 +4890,19 @@
         <v>141406</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118834</v>
+        <v>119962</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167160</v>
+        <v>167078</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03973962204239014</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03339624018432391</v>
+        <v>0.03371316454203181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04697741476441972</v>
+        <v>0.04695436037164726</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>245</v>
@@ -4911,19 +4911,19 @@
         <v>266564</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>235718</v>
+        <v>236133</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>302479</v>
+        <v>302592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03816185932237855</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03374588138088692</v>
+        <v>0.03380531369621251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04330354237896432</v>
+        <v>0.04331974193934728</v>
       </c>
     </row>
     <row r="30">
@@ -4940,19 +4940,19 @@
         <v>17096</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9816</v>
+        <v>9877</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29125</v>
+        <v>27417</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004988873348728182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002864599044714509</v>
+        <v>0.002882314616114902</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.008499324451281992</v>
+        <v>0.008000877454570314</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -4961,19 +4961,19 @@
         <v>26353</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17970</v>
+        <v>16475</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39478</v>
+        <v>38385</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007406053361354512</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005050172306918727</v>
+        <v>0.004630095739267166</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01109452818889031</v>
+        <v>0.01078745406469793</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -4982,19 +4982,19 @@
         <v>43449</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29750</v>
+        <v>30816</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58452</v>
+        <v>58064</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006220221281731869</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004259024313556153</v>
+        <v>0.004411718006102496</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008368123077298928</v>
+        <v>0.008312600354813298</v>
       </c>
     </row>
     <row r="31">
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6785</v>
+        <v>7070</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0005626045399464958</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.00198003213668661</v>
+        <v>0.002063150028326012</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5032,19 +5032,19 @@
         <v>5390</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1986</v>
+        <v>1950</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11891</v>
+        <v>12056</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001514736165857202</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0005581612647865218</v>
+        <v>0.0005480701302000877</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.003341852054076225</v>
+        <v>0.003388041014813208</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -5053,19 +5053,19 @@
         <v>7318</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2961</v>
+        <v>3125</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14816</v>
+        <v>14415</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001047634741829862</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0004238992720510955</v>
+        <v>0.0004474408532681308</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.00212103269004861</v>
+        <v>0.002063724531528434</v>
       </c>
     </row>
     <row r="32">
@@ -5082,19 +5082,19 @@
         <v>46660</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32485</v>
+        <v>34871</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63727</v>
+        <v>62600</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01361640518599963</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009479855658274515</v>
+        <v>0.01017612477686063</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01859677746036958</v>
+        <v>0.01826781225649443</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -5103,19 +5103,19 @@
         <v>30824</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19646</v>
+        <v>20711</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45769</v>
+        <v>43932</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008662566652825688</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00552113992140069</v>
+        <v>0.005820480003748772</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01286259987360573</v>
+        <v>0.01234640272933877</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -5124,19 +5124,19 @@
         <v>77484</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>60405</v>
+        <v>61005</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97459</v>
+        <v>97285</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01109284516713697</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008647745335796573</v>
+        <v>0.008733587091005673</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01395245868321009</v>
+        <v>0.01392751101228239</v>
       </c>
     </row>
     <row r="33">
@@ -5153,19 +5153,19 @@
         <v>104389</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>85912</v>
+        <v>85418</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>125854</v>
+        <v>130138</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03046261724275403</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02507076128248122</v>
+        <v>0.02492673095868363</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03672655997585207</v>
+        <v>0.03797679973509614</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>65</v>
@@ -5174,19 +5174,19 @@
         <v>68256</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>53940</v>
+        <v>52100</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>85565</v>
+        <v>86980</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01918200650982143</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01515878395978851</v>
+        <v>0.01464172625743097</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02404645688084824</v>
+        <v>0.02444413795098214</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>163</v>
@@ -5195,19 +5195,19 @@
         <v>172644</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>149556</v>
+        <v>148055</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>200725</v>
+        <v>201015</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02471610410080416</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02141079622364449</v>
+        <v>0.02119588181278059</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02873619031676033</v>
+        <v>0.02877769064922969</v>
       </c>
     </row>
     <row r="34">
@@ -5468,19 +5468,19 @@
         <v>67939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53578</v>
+        <v>54494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82812</v>
+        <v>83705</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.100680375138788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0793986299040538</v>
+        <v>0.08075518948667278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1227207027368797</v>
+        <v>0.1240437275294273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -5489,19 +5489,19 @@
         <v>69680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55192</v>
+        <v>54789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88232</v>
+        <v>87825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1035617895518488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08202788581483762</v>
+        <v>0.08142990405267098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.131134468558679</v>
+        <v>0.1305290843916892</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -5510,19 +5510,19 @@
         <v>137620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116393</v>
+        <v>117369</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159439</v>
+        <v>161475</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1021189859161983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08636826056068236</v>
+        <v>0.08709263236469983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1183095296971483</v>
+        <v>0.1198210120338217</v>
       </c>
     </row>
     <row r="5">
@@ -5539,19 +5539,19 @@
         <v>22216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14328</v>
+        <v>14176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34572</v>
+        <v>33020</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03292282503473647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0212327253870615</v>
+        <v>0.02100806829764467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05123260067021185</v>
+        <v>0.04893362940666252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -5560,19 +5560,19 @@
         <v>29622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19033</v>
+        <v>20196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40713</v>
+        <v>41073</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04402582808346957</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02828758267144294</v>
+        <v>0.03001632183229221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06050894868796303</v>
+        <v>0.0610440984507136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -5581,19 +5581,19 @@
         <v>51839</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38532</v>
+        <v>38762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68154</v>
+        <v>67016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03846624835320277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02859237222376932</v>
+        <v>0.02876284381541151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05057321007622719</v>
+        <v>0.04972882159834432</v>
       </c>
     </row>
     <row r="6">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3661</v>
+        <v>4086</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001204447763121212</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.005424909825114978</v>
+        <v>0.006055485883990536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5631,19 +5631,19 @@
         <v>4313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1662</v>
+        <v>1689</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9627</v>
+        <v>9625</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006409877389210191</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002470587062223522</v>
+        <v>0.002510268767490392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01430751722302774</v>
+        <v>0.01430558440949128</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -5652,19 +5652,19 @@
         <v>5126</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10945</v>
+        <v>11025</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003803375264558719</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001311602671888215</v>
+        <v>0.001293437106330517</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008121815209452352</v>
+        <v>0.008181032085922139</v>
       </c>
     </row>
     <row r="7">
@@ -5681,19 +5681,19 @@
         <v>3497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10176</v>
+        <v>10487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005182128604156958</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001512714880430626</v>
+        <v>0.001525065345212869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01508037470231027</v>
+        <v>0.0155414066471063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -5702,19 +5702,19 @@
         <v>6268</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2758</v>
+        <v>2503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14304</v>
+        <v>13996</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009316489622981006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004099723458613602</v>
+        <v>0.003719941545483767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02125983338335551</v>
+        <v>0.02080201475175784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5723,19 +5723,19 @@
         <v>9765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4540</v>
+        <v>4779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17286</v>
+        <v>17877</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007246301078767095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003368639447075509</v>
+        <v>0.003546342610236151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01282665095126169</v>
+        <v>0.01326517577938958</v>
       </c>
     </row>
     <row r="8">
@@ -5752,19 +5752,19 @@
         <v>3996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9936</v>
+        <v>10145</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005921969125120807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001565669971916073</v>
+        <v>0.001546786931599016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01472415436570551</v>
+        <v>0.01503388114034297</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6086</v>
+        <v>7403</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002822870376323176</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009045367060928585</v>
+        <v>0.01100213808483363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -5794,19 +5794,19 @@
         <v>5895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2777</v>
+        <v>2056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12037</v>
+        <v>12945</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004374674560316127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002060575689624589</v>
+        <v>0.001525683713446636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008932158263851487</v>
+        <v>0.009605722482474622</v>
       </c>
     </row>
     <row r="9">
@@ -5823,19 +5823,19 @@
         <v>14708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7921</v>
+        <v>7725</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24133</v>
+        <v>23109</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02179583523260296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01173823148316491</v>
+        <v>0.01144810771938139</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03576365556047575</v>
+        <v>0.03424626524184097</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -5844,19 +5844,19 @@
         <v>6849</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3068</v>
+        <v>2969</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13796</v>
+        <v>13654</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01017937238842882</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004560033347842953</v>
+        <v>0.004413345527637157</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0205047942915521</v>
+        <v>0.02029362616507605</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -5865,19 +5865,19 @@
         <v>21557</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13338</v>
+        <v>13838</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32361</v>
+        <v>33588</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01599605559408075</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009897321698520591</v>
+        <v>0.01026796299131558</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02401298364085921</v>
+        <v>0.02492325733667535</v>
       </c>
     </row>
     <row r="10">
@@ -5898,19 +5898,19 @@
         <v>84219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67466</v>
+        <v>68440</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102960</v>
+        <v>101688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08237167758531098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06598590538225077</v>
+        <v>0.06693840936275643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1007012044796974</v>
+        <v>0.0994570195053435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -5919,19 +5919,19 @@
         <v>114043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93484</v>
+        <v>94732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137908</v>
+        <v>138399</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1093504629032055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08963710848614434</v>
+        <v>0.09083397040986628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.132233139883751</v>
+        <v>0.1327040620217817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -5940,19 +5940,19 @@
         <v>198262</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170374</v>
+        <v>171903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>228375</v>
+        <v>227014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09599484451070661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0824920501144676</v>
+        <v>0.08323227635788875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1105747946093482</v>
+        <v>0.1099157631093638</v>
       </c>
     </row>
     <row r="11">
@@ -5969,19 +5969,19 @@
         <v>36187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25219</v>
+        <v>25318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50181</v>
+        <v>50088</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03539354381208219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02466531514627222</v>
+        <v>0.02476223054556898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04908038289412094</v>
+        <v>0.04898949351885386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -5990,19 +5990,19 @@
         <v>26595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17197</v>
+        <v>17002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39028</v>
+        <v>38497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02550041408205677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0164894076059305</v>
+        <v>0.0163026019620456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0374221156608221</v>
+        <v>0.03691319242315343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -6011,19 +6011,19 @@
         <v>62782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48239</v>
+        <v>47913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82427</v>
+        <v>80965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03039792387817299</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02335657868640595</v>
+        <v>0.02319847867706493</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03990959992108832</v>
+        <v>0.03920183564618785</v>
       </c>
     </row>
     <row r="12">
@@ -6040,19 +6040,19 @@
         <v>4784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1187</v>
+        <v>1145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11287</v>
+        <v>11788</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004679466845552262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001160850421754245</v>
+        <v>0.001119669063830359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01103965528343693</v>
+        <v>0.01152963575154115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6061,19 +6061,19 @@
         <v>6803</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2920</v>
+        <v>2973</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13871</v>
+        <v>13769</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006523514454824074</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002800053385154051</v>
+        <v>0.002850707962977901</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01330036498932962</v>
+        <v>0.0132024075326148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -6082,19 +6082,19 @@
         <v>11588</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6128</v>
+        <v>5591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20097</v>
+        <v>20322</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00561063435748705</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002967208425048064</v>
+        <v>0.002706837300553159</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009730484077926352</v>
+        <v>0.009839380905533717</v>
       </c>
     </row>
     <row r="13">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9931</v>
+        <v>9175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002427603743118019</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009713046281038992</v>
+        <v>0.008973380170936464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6132,19 +6132,19 @@
         <v>3828</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>938</v>
+        <v>994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8926</v>
+        <v>9147</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003670328309626002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0008997752167666947</v>
+        <v>0.0009534697377634763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008558560870998058</v>
+        <v>0.008771027202703816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -6153,19 +6153,19 @@
         <v>6310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2540</v>
+        <v>2616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13151</v>
+        <v>13792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003055128074267166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001229852396668578</v>
+        <v>0.00126682907201784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006367488757508083</v>
+        <v>0.006678000436158534</v>
       </c>
     </row>
     <row r="14">
@@ -6182,19 +6182,19 @@
         <v>6734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2723</v>
+        <v>2892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14691</v>
+        <v>15343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006586743507974523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002663370066603644</v>
+        <v>0.002828393414541525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01436841193132201</v>
+        <v>0.01500655458728235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6203,19 +6203,19 @@
         <v>7395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2986</v>
+        <v>2904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14922</v>
+        <v>15478</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007090847562978081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002863356167260229</v>
+        <v>0.00278421462920606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01430827952363547</v>
+        <v>0.01484146707610342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -6224,19 +6224,19 @@
         <v>14130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7870</v>
+        <v>7709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23495</v>
+        <v>23007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006841295134675345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003810646829374635</v>
+        <v>0.003732431968125084</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01137568564022895</v>
+        <v>0.01113932883954803</v>
       </c>
     </row>
     <row r="15">
@@ -6253,19 +6253,19 @@
         <v>10804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4914</v>
+        <v>5377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20075</v>
+        <v>20108</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01056725172848292</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004806599789752318</v>
+        <v>0.005258591631337783</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01963438880289814</v>
+        <v>0.0196667536586474</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -6274,19 +6274,19 @@
         <v>24471</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16739</v>
+        <v>14661</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36871</v>
+        <v>36738</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02346362538685799</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01605041436545511</v>
+        <v>0.0140580720594979</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0353542493962709</v>
+        <v>0.03522603454131295</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>32</v>
@@ -6295,19 +6295,19 @@
         <v>35275</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24529</v>
+        <v>24151</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>50140</v>
+        <v>48084</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01707938520707165</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01187631061959246</v>
+        <v>0.01169355211015634</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.024276891127697</v>
+        <v>0.02328133031601522</v>
       </c>
     </row>
     <row r="16">
@@ -6328,19 +6328,19 @@
         <v>75294</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58456</v>
+        <v>60697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94690</v>
+        <v>94162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09912884667226295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07696138027675209</v>
+        <v>0.0799117859047274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1246649786250017</v>
+        <v>0.1239703987673747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -6349,19 +6349,19 @@
         <v>82628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66645</v>
+        <v>63301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104051</v>
+        <v>100206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1052576444329148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08489635440332452</v>
+        <v>0.08063736413322982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1325469980265099</v>
+        <v>0.1276498028789931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -6370,19 +6370,19 @@
         <v>157922</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132878</v>
+        <v>132715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185574</v>
+        <v>185479</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1022437552408058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0860294888945304</v>
+        <v>0.08592421580769258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1201464214513208</v>
+        <v>0.1200852623108679</v>
       </c>
     </row>
     <row r="17">
@@ -6399,19 +6399,19 @@
         <v>34779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24171</v>
+        <v>24616</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47909</v>
+        <v>48655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0457890003217714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03182237855302539</v>
+        <v>0.03240841771142672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06307536686245986</v>
+        <v>0.06405782063787382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -6420,19 +6420,19 @@
         <v>18018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11272</v>
+        <v>10934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29027</v>
+        <v>28537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02295306396396832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01435857191305314</v>
+        <v>0.01392802061307092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0369771340853236</v>
+        <v>0.03635238893320638</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6441,19 +6441,19 @@
         <v>52798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39548</v>
+        <v>38337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69907</v>
+        <v>68909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03418283274869525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02560492253589189</v>
+        <v>0.02482078237656021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04525998691022605</v>
+        <v>0.04461422885828503</v>
       </c>
     </row>
     <row r="18">
@@ -6470,19 +6470,19 @@
         <v>6265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2129</v>
+        <v>3056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13590</v>
+        <v>13786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00824806928315666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002803271316153171</v>
+        <v>0.004023981949935796</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01789179088355264</v>
+        <v>0.01815040495532787</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8046</v>
+        <v>9297</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00338466856430082</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01025010060349144</v>
+        <v>0.01184279211822393</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -6512,19 +6512,19 @@
         <v>8922</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4154</v>
+        <v>4304</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17286</v>
+        <v>17534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005776287840361896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002689478786666748</v>
+        <v>0.002786555699978377</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01119163566276864</v>
+        <v>0.01135236132491012</v>
       </c>
     </row>
     <row r="19">
@@ -6541,19 +6541,19 @@
         <v>3168</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8471</v>
+        <v>9486</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004171394978595953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001375792494145383</v>
+        <v>0.001382388081028697</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01115268680539717</v>
+        <v>0.01248934694247074</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -6575,19 +6575,19 @@
         <v>3168</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9524</v>
+        <v>8521</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002051319481077327</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0006801606947901437</v>
+        <v>0.0006809130093053041</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006166313274735043</v>
+        <v>0.005516542806548112</v>
       </c>
     </row>
     <row r="20">
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5086</v>
+        <v>5985</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001338267099434136</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006696210761126044</v>
+        <v>0.007879258641115282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6625,19 +6625,19 @@
         <v>4149</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1162</v>
+        <v>993</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10710</v>
+        <v>9343</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005285224122801184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001480275006883529</v>
+        <v>0.001264751432007705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01364290285409311</v>
+        <v>0.01190120586185852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -6646,19 +6646,19 @@
         <v>5165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1903</v>
+        <v>1987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11369</v>
+        <v>11898</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003344273943172548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00123198894311949</v>
+        <v>0.001286265881976976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007360822921002741</v>
+        <v>0.00770333401351691</v>
       </c>
     </row>
     <row r="21">
@@ -6675,19 +6675,19 @@
         <v>7864</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3788</v>
+        <v>3712</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15237</v>
+        <v>15334</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01035352328181225</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004987273200022439</v>
+        <v>0.004886592239394933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02006024758718784</v>
+        <v>0.02018871549873471</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6696,19 +6696,19 @@
         <v>12180</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6659</v>
+        <v>6334</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21507</v>
+        <v>20817</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01551519769341349</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008483188981799693</v>
+        <v>0.008068898476840818</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0273966027228176</v>
+        <v>0.0265176266753804</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -6717,19 +6717,19 @@
         <v>20044</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12371</v>
+        <v>12582</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30871</v>
+        <v>29802</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01297689975475608</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008009285785977238</v>
+        <v>0.008145742518884608</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0199871345641674</v>
+        <v>0.01929481717206292</v>
       </c>
     </row>
     <row r="22">
@@ -6750,19 +6750,19 @@
         <v>82469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66551</v>
+        <v>66519</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100607</v>
+        <v>100295</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08796093863598298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07098243533850515</v>
+        <v>0.07094829740295996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1073064229697348</v>
+        <v>0.106974146542717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -6771,19 +6771,19 @@
         <v>113444</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89575</v>
+        <v>93192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136684</v>
+        <v>137679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1086855443629673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08581780565070345</v>
+        <v>0.08928324292960679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1309508669219068</v>
+        <v>0.1319039192744978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -6792,19 +6792,19 @@
         <v>195913</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169802</v>
+        <v>167727</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>225931</v>
+        <v>224180</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09887872299818912</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08570037343017461</v>
+        <v>0.08465327645695546</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1140288039698973</v>
+        <v>0.1131451984215573</v>
       </c>
     </row>
     <row r="23">
@@ -6821,19 +6821,19 @@
         <v>24717</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16856</v>
+        <v>16574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36649</v>
+        <v>34717</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0263631420916045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01797810578572311</v>
+        <v>0.01767788115241775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03908912949748987</v>
+        <v>0.03702867259997755</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -6842,19 +6842,19 @@
         <v>32556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22702</v>
+        <v>21323</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48554</v>
+        <v>48134</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03119064006440165</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02174963756787121</v>
+        <v>0.02042828048413192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04651721401240173</v>
+        <v>0.0461151933387143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>54</v>
@@ -6863,19 +6863,19 @@
         <v>57273</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>43220</v>
+        <v>43596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>75417</v>
+        <v>74868</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02890628248087433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02181321473597993</v>
+        <v>0.02200325438113872</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03806332369647904</v>
+        <v>0.03778642948239406</v>
       </c>
     </row>
     <row r="24">
@@ -6892,19 +6892,19 @@
         <v>8526</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3771</v>
+        <v>3798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16527</v>
+        <v>15955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00909398539629991</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004022492032925339</v>
+        <v>0.004050687282433211</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01762795931579642</v>
+        <v>0.01701711649453928</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6913,19 +6913,19 @@
         <v>8909</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3942</v>
+        <v>4020</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17518</v>
+        <v>16875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008535337827377891</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003776649086098705</v>
+        <v>0.003851327546490842</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01678349742656163</v>
+        <v>0.01616695781480706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -6934,19 +6934,19 @@
         <v>17435</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10543</v>
+        <v>9838</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28822</v>
+        <v>28281</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008799688183976112</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005321196209058575</v>
+        <v>0.004965329481797914</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01454667308363498</v>
+        <v>0.01427339772895488</v>
       </c>
     </row>
     <row r="25">
@@ -6963,19 +6963,19 @@
         <v>3432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11395</v>
+        <v>10147</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003660091196791983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.000843273221154309</v>
+        <v>0.0008458717751724562</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0121534151668681</v>
+        <v>0.01082313894692749</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7690</v>
+        <v>8003</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001526118825328274</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007367441492688797</v>
+        <v>0.007666861786183601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -7005,19 +7005,19 @@
         <v>5025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13850</v>
+        <v>13198</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002535908160768714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.000803878753804655</v>
+        <v>0.0007998978781501675</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006990195390041427</v>
+        <v>0.006661379389142828</v>
       </c>
     </row>
     <row r="26">
@@ -7034,19 +7034,19 @@
         <v>3940</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11595</v>
+        <v>11749</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004201839204084587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001211849315726153</v>
+        <v>0.001202805124681608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01236679975559015</v>
+        <v>0.01253172898702884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -7055,19 +7055,19 @@
         <v>5652</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2686</v>
+        <v>2004</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15284</v>
+        <v>13258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005414991103727451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002573034918688104</v>
+        <v>0.001919897216110722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01464257063325087</v>
+        <v>0.0127019094500502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -7076,19 +7076,19 @@
         <v>9592</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4189</v>
+        <v>3995</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19498</v>
+        <v>18378</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004840931257915849</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002114199421318816</v>
+        <v>0.002016089409142205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00984059615209207</v>
+        <v>0.009275411865113659</v>
       </c>
     </row>
     <row r="27">
@@ -7105,19 +7105,19 @@
         <v>21371</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13708</v>
+        <v>13789</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31325</v>
+        <v>32703</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02279431077994364</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01462029517579883</v>
+        <v>0.01470705632522484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03341091627144861</v>
+        <v>0.03488120859626082</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -7126,19 +7126,19 @@
         <v>20286</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11748</v>
+        <v>11822</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31618</v>
+        <v>32953</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01943477029436097</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01125479678094262</v>
+        <v>0.0113261735879654</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03029151689740096</v>
+        <v>0.03157131576096348</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -7147,19 +7147,19 @@
         <v>41657</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29636</v>
+        <v>30664</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>56218</v>
+        <v>57371</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02102449479111951</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01495734747905858</v>
+        <v>0.01547620591007592</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02837349354032265</v>
+        <v>0.0289558079638395</v>
       </c>
     </row>
     <row r="28">
@@ -7180,19 +7180,19 @@
         <v>309921</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>280094</v>
+        <v>276524</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>344440</v>
+        <v>343892</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09130504041002734</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08251764776099688</v>
+        <v>0.08146585207475021</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1014745033663597</v>
+        <v>0.101313119906393</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>313</v>
@@ -7201,19 +7201,19 @@
         <v>379796</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>338703</v>
+        <v>338764</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>419753</v>
+        <v>421912</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1071493941301074</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09555607283351561</v>
+        <v>0.09557347775142078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1184223030943533</v>
+        <v>0.11903135490471</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>634</v>
@@ -7222,19 +7222,19 @@
         <v>689717</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>638349</v>
+        <v>640019</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>745695</v>
+        <v>746856</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09939869202452667</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09199583501170452</v>
+        <v>0.09223653387040122</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.107465981377888</v>
+        <v>0.1076333126606079</v>
       </c>
     </row>
     <row r="29">
@@ -7251,19 +7251,19 @@
         <v>117900</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97185</v>
+        <v>97110</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140755</v>
+        <v>139612</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03473422649691834</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02863127859266876</v>
+        <v>0.02860936615282494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.041467434612122</v>
+        <v>0.04113076547287464</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>97</v>
@@ -7272,19 +7272,19 @@
         <v>106792</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86979</v>
+        <v>87746</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127136</v>
+        <v>128869</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03012844824869569</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02453899013770878</v>
+        <v>0.0247551100565492</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03586803397292448</v>
+        <v>0.0363571456808409</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>210</v>
@@ -7293,19 +7293,19 @@
         <v>224692</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>197283</v>
+        <v>193340</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>254829</v>
+        <v>255548</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03238149155970787</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02843145918932089</v>
+        <v>0.02786326748044689</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03672477391032956</v>
+        <v>0.03682832526660547</v>
       </c>
     </row>
     <row r="30">
@@ -7322,19 +7322,19 @@
         <v>20388</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12494</v>
+        <v>12524</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31683</v>
+        <v>31758</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006006526210426404</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00368093441509855</v>
+        <v>0.003689696133740569</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009334009483488831</v>
+        <v>0.009356272597566188</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -7343,19 +7343,19 @@
         <v>22682</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14407</v>
+        <v>14380</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34778</v>
+        <v>34508</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.006399213762609335</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00406448118939227</v>
+        <v>0.004056982255793869</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.009811720797687943</v>
+        <v>0.009735420082463999</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -7364,19 +7364,19 @@
         <v>43071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30933</v>
+        <v>30670</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56897</v>
+        <v>56549</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006207119828624363</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004457978384461964</v>
+        <v>0.004420041932431642</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008199683479153071</v>
+        <v>0.008149538279380371</v>
       </c>
     </row>
     <row r="31">
@@ -7393,19 +7393,19 @@
         <v>12579</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6477</v>
+        <v>6293</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22527</v>
+        <v>22429</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003705843536354739</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001908215248224411</v>
+        <v>0.001854016867011989</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.006636762364796529</v>
+        <v>0.006607660991285741</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -7414,19 +7414,19 @@
         <v>11689</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6338</v>
+        <v>6189</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21031</v>
+        <v>20622</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003297819979477635</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001788119160726037</v>
+        <v>0.001746150669219554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.005933446970710551</v>
+        <v>0.005818055545248589</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -7435,19 +7435,19 @@
         <v>24268</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15399</v>
+        <v>15760</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35729</v>
+        <v>36606</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003497415942638065</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002219199395015459</v>
+        <v>0.00227129287474801</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.00514908710837895</v>
+        <v>0.005275412355832646</v>
       </c>
     </row>
     <row r="32">
@@ -7464,19 +7464,19 @@
         <v>15687</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8763</v>
+        <v>8733</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25598</v>
+        <v>26505</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.00462139246902526</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002581546606531243</v>
+        <v>0.00257274394981068</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007541432091562444</v>
+        <v>0.007808563648557921</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -7485,19 +7485,19 @@
         <v>19095</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11387</v>
+        <v>11045</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29911</v>
+        <v>30311</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005387293328426142</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003212616409709543</v>
+        <v>0.003116080800937214</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008438519214439343</v>
+        <v>0.008551481469107731</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -7506,19 +7506,19 @@
         <v>34782</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24422</v>
+        <v>24013</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>49309</v>
+        <v>48164</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005012631823861188</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003519637720701419</v>
+        <v>0.003460635128840184</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007106151588935737</v>
+        <v>0.006941142515357008</v>
       </c>
     </row>
     <row r="33">
@@ -7535,19 +7535,19 @@
         <v>54747</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>42242</v>
+        <v>43035</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>72117</v>
+        <v>72420</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01612896315600401</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.012444650944344</v>
+        <v>0.01267839570999348</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02124627546719885</v>
+        <v>0.02133558388424528</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>57</v>
@@ -7556,19 +7556,19 @@
         <v>63785</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>48075</v>
+        <v>49080</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>83421</v>
+        <v>81260</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0179952176232483</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01356303550495595</v>
+        <v>0.01384655924060113</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02353516702760737</v>
+        <v>0.02292535442005354</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>112</v>
@@ -7577,19 +7577,19 @@
         <v>118532</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>97916</v>
+        <v>99087</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>141898</v>
+        <v>141939</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01708228783864698</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0141112219745042</v>
+        <v>0.01427992604185112</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02044972403774415</v>
+        <v>0.02045556167342535</v>
       </c>
     </row>
     <row r="34">
@@ -7850,19 +7850,19 @@
         <v>113458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98130</v>
+        <v>97180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131656</v>
+        <v>129936</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.164263550541841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1420716755519714</v>
+        <v>0.1406954218615394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.190609072366131</v>
+        <v>0.1881192181567525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>313</v>
@@ -7871,19 +7871,19 @@
         <v>133794</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120718</v>
+        <v>120654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148671</v>
+        <v>149967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1822355410646442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1644262706036673</v>
+        <v>0.1643384321939755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.202498810924958</v>
+        <v>0.2042639655178516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>498</v>
@@ -7892,19 +7892,19 @@
         <v>247252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226140</v>
+        <v>225147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>269855</v>
+        <v>271108</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1735236887902214</v>
+        <v>0.1735236887902213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1587070250021094</v>
+        <v>0.1580099152216141</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1893866938705072</v>
+        <v>0.1902662636399878</v>
       </c>
     </row>
     <row r="5">
@@ -7921,19 +7921,19 @@
         <v>31566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22939</v>
+        <v>22311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43281</v>
+        <v>43687</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04570119411328422</v>
+        <v>0.04570119411328423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03321050015049261</v>
+        <v>0.03230212562488386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0626613039727108</v>
+        <v>0.0632497775147312</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -7942,19 +7942,19 @@
         <v>47225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37913</v>
+        <v>38523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58599</v>
+        <v>57840</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06432396125814317</v>
+        <v>0.06432396125814316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05164016645506467</v>
+        <v>0.05247101242106842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07981498404442287</v>
+        <v>0.07878234378925136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -7963,19 +7963,19 @@
         <v>78792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65884</v>
+        <v>65292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94177</v>
+        <v>94521</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05529664755568291</v>
+        <v>0.0552966475556829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04623764525609449</v>
+        <v>0.04582247050236891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06609392248477323</v>
+        <v>0.06633590992064325</v>
       </c>
     </row>
     <row r="6">
@@ -7992,19 +7992,19 @@
         <v>5634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2181</v>
+        <v>2154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12730</v>
+        <v>12468</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008156488001092123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00315783158634684</v>
+        <v>0.003118695052835204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01843076178074719</v>
+        <v>0.01805052660876584</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -8013,19 +8013,19 @@
         <v>6846</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3257</v>
+        <v>3401</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12203</v>
+        <v>12472</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.009325118632376096</v>
+        <v>0.009325118632376094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004435730007430338</v>
+        <v>0.004632291525079885</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01662098455292282</v>
+        <v>0.01698701409140397</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -8034,19 +8034,19 @@
         <v>12480</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6984</v>
+        <v>6969</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20795</v>
+        <v>20640</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008758629494169966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004901740492616173</v>
+        <v>0.00489119469820024</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01459399646299021</v>
+        <v>0.01448500944704983</v>
       </c>
     </row>
     <row r="7">
@@ -8063,19 +8063,19 @@
         <v>5276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1364</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13157</v>
+        <v>12959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007639129505713048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001974254243534986</v>
+        <v>0.002036212093992751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01904921979345331</v>
+        <v>0.01876114924129938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -8084,19 +8084,19 @@
         <v>8574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4492</v>
+        <v>4603</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16097</v>
+        <v>16433</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01167794378737568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006118437114421455</v>
+        <v>0.006269642017893459</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02192549877157761</v>
+        <v>0.022383269485838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -8105,19 +8105,19 @@
         <v>13850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7471</v>
+        <v>7823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23213</v>
+        <v>24315</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.009720144324871505</v>
+        <v>0.009720144324871503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005243351388440819</v>
+        <v>0.005490018156098282</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01629139976034671</v>
+        <v>0.01706433966416466</v>
       </c>
     </row>
     <row r="8">
@@ -8134,19 +8134,19 @@
         <v>9251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3992</v>
+        <v>4020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17703</v>
+        <v>18196</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0133928914827652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00577893472514074</v>
+        <v>0.005820491969632901</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02563052239242176</v>
+        <v>0.02634390224527241</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -8155,19 +8155,19 @@
         <v>20166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13466</v>
+        <v>13136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29781</v>
+        <v>29574</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02746695895209675</v>
+        <v>0.02746695895209676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01834103389076347</v>
+        <v>0.01789184794793255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04056376265730911</v>
+        <v>0.04028214096723551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -8176,19 +8176,19 @@
         <v>29416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20140</v>
+        <v>20176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41762</v>
+        <v>42330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02064460966710766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01413437459698956</v>
+        <v>0.01415968175682113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0293092069138657</v>
+        <v>0.02970770327985852</v>
       </c>
     </row>
     <row r="9">
@@ -8205,19 +8205,19 @@
         <v>56852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43282</v>
+        <v>44343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71892</v>
+        <v>72644</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08230948401018012</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0626636485396414</v>
+        <v>0.0641997136976048</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1040842549070903</v>
+        <v>0.105172963095926</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>100</v>
@@ -8226,19 +8226,19 @@
         <v>57778</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47348</v>
+        <v>46779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71998</v>
+        <v>70466</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07869784744008899</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06449148856906231</v>
+        <v>0.06371575244960934</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0980655498149211</v>
+        <v>0.09597875206813061</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -8247,19 +8247,19 @@
         <v>114630</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93786</v>
+        <v>96495</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132477</v>
+        <v>134568</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08044857417387039</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06581971681806725</v>
+        <v>0.06772100430109002</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09297343635397091</v>
+        <v>0.09444128903173607</v>
       </c>
     </row>
     <row r="10">
@@ -8280,19 +8280,19 @@
         <v>107429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91433</v>
+        <v>90828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125314</v>
+        <v>126575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1024189506677844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08716913505742475</v>
+        <v>0.08659252983959215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1194694515042622</v>
+        <v>0.1206724967948736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>306</v>
@@ -8301,19 +8301,19 @@
         <v>168696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149653</v>
+        <v>150549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187098</v>
+        <v>187946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1574430105175103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1396701361605857</v>
+        <v>0.140506591633861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1746174208393906</v>
+        <v>0.1754085863826537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>462</v>
@@ -8322,19 +8322,19 @@
         <v>276125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252587</v>
+        <v>250901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304741</v>
+        <v>302765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1302236591923245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.119122742862521</v>
+        <v>0.1183275878858307</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1437190864054852</v>
+        <v>0.1427874734523354</v>
       </c>
     </row>
     <row r="11">
@@ -8351,19 +8351,19 @@
         <v>58276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45118</v>
+        <v>45797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75018</v>
+        <v>74666</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05555819539434542</v>
+        <v>0.05555819539434541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04301411901625789</v>
+        <v>0.04366092853147215</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07151995653799896</v>
+        <v>0.07118431530310318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -8372,19 +8372,19 @@
         <v>68972</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56183</v>
+        <v>55886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88269</v>
+        <v>85651</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06437097620056759</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05243552029714747</v>
+        <v>0.05215764745803139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08238046305621702</v>
+        <v>0.0799377094713323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -8393,19 +8393,19 @@
         <v>127248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106922</v>
+        <v>109035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>147651</v>
+        <v>151247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06001146187953171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05042579754138018</v>
+        <v>0.05142200072604371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06963363709099106</v>
+        <v>0.07132986631091758</v>
       </c>
     </row>
     <row r="12">
@@ -8422,19 +8422,19 @@
         <v>7154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17800</v>
+        <v>19291</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006820506058076549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002189857224540505</v>
+        <v>0.002191333956350317</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01696956965870763</v>
+        <v>0.01839102082513596</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -8443,19 +8443,19 @@
         <v>18036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11784</v>
+        <v>12054</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27234</v>
+        <v>26735</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01683319044932391</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0109983991973729</v>
+        <v>0.01124988327595039</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0254172187275508</v>
+        <v>0.02495187411653205</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -8464,19 +8464,19 @@
         <v>25190</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16402</v>
+        <v>16663</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36961</v>
+        <v>37528</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01188010674561528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007735537621314477</v>
+        <v>0.007858273280598536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0174311773603096</v>
+        <v>0.01769853831023511</v>
       </c>
     </row>
     <row r="13">
@@ -8493,19 +8493,19 @@
         <v>13047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6470</v>
+        <v>6688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24852</v>
+        <v>26936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0124389207930214</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00616783535326625</v>
+        <v>0.006376535839219015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02369270102866707</v>
+        <v>0.02568005840612139</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -8514,19 +8514,19 @@
         <v>14927</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9037</v>
+        <v>9232</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23288</v>
+        <v>23152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0139316181309898</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008434380159570706</v>
+        <v>0.008616221213735986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02173418211820898</v>
+        <v>0.0216072910070552</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -8535,19 +8535,19 @@
         <v>27975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18333</v>
+        <v>18596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40850</v>
+        <v>41146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01319320927175086</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008646224969358372</v>
+        <v>0.008769999974727345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01926533025714568</v>
+        <v>0.01940469604583862</v>
       </c>
     </row>
     <row r="14">
@@ -8564,19 +8564,19 @@
         <v>23926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15216</v>
+        <v>15194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34701</v>
+        <v>35772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02281027070606343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01450646257513387</v>
+        <v>0.01448578636731125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03308253513132712</v>
+        <v>0.03410352644182513</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -8585,19 +8585,19 @@
         <v>32329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23419</v>
+        <v>22733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44400</v>
+        <v>44501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0301727573524634</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02185692750444907</v>
+        <v>0.02121626305418419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04143784881684462</v>
+        <v>0.0415323559266252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -8606,19 +8606,19 @@
         <v>56255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43043</v>
+        <v>42309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71668</v>
+        <v>72096</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02653067584843298</v>
+        <v>0.02653067584843299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02029972390767773</v>
+        <v>0.01995336383718182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03379924545499587</v>
+        <v>0.03400118576839097</v>
       </c>
     </row>
     <row r="15">
@@ -8635,19 +8635,19 @@
         <v>70607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55225</v>
+        <v>54966</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>90238</v>
+        <v>91098</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06731461828051474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05264914596762135</v>
+        <v>0.05240232320577464</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08603001198395706</v>
+        <v>0.08684940881193566</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>119</v>
@@ -8656,19 +8656,19 @@
         <v>78460</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>64580</v>
+        <v>64815</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>93755</v>
+        <v>92270</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07322642316701961</v>
+        <v>0.07322642316701962</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06027226465585555</v>
+        <v>0.06049171039549932</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08750104230608226</v>
+        <v>0.08611475778243328</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>187</v>
@@ -8677,19 +8677,19 @@
         <v>149068</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>127934</v>
+        <v>129817</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>170875</v>
+        <v>174064</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07030196621834668</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06033493447494411</v>
+        <v>0.06122335341703621</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08058642519941515</v>
+        <v>0.08209061959636786</v>
       </c>
     </row>
     <row r="16">
@@ -8710,19 +8710,19 @@
         <v>92868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76148</v>
+        <v>77828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110298</v>
+        <v>111889</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1156401739693707</v>
+        <v>0.1156401739693706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09482108442649539</v>
+        <v>0.09691300340401154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1373452212200316</v>
+        <v>0.1393261215719316</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -8731,19 +8731,19 @@
         <v>110825</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96469</v>
+        <v>96799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126746</v>
+        <v>127763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.136439916740422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1187662441978602</v>
+        <v>0.1191720220737318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1560408021687395</v>
+        <v>0.1572929753620315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>287</v>
@@ -8752,19 +8752,19 @@
         <v>203692</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179895</v>
+        <v>182488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227094</v>
+        <v>228371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1260991849236113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1113672061764937</v>
+        <v>0.1129727414027425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.140586499903274</v>
+        <v>0.141376909483693</v>
       </c>
     </row>
     <row r="17">
@@ -8781,19 +8781,19 @@
         <v>36091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24910</v>
+        <v>26203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48090</v>
+        <v>50494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04494119629551031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03101817849845378</v>
+        <v>0.03262831556590678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05988267455393876</v>
+        <v>0.06287657475242721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -8802,19 +8802,19 @@
         <v>38189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29082</v>
+        <v>28929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49091</v>
+        <v>48659</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04701587530120593</v>
+        <v>0.04701587530120595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03580400812384535</v>
+        <v>0.03561548035391808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06043813438763829</v>
+        <v>0.05990591705980047</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -8823,19 +8823,19 @@
         <v>74280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>60857</v>
+        <v>61414</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90821</v>
+        <v>91083</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04598443469927096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0376744398408259</v>
+        <v>0.03801930209621215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05622411287087036</v>
+        <v>0.0563868473517284</v>
       </c>
     </row>
     <row r="18">
@@ -8852,19 +8852,19 @@
         <v>3799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9789</v>
+        <v>9081</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004730055757958883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001137597155070392</v>
+        <v>0.001150392140131872</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01218963035233314</v>
+        <v>0.01130830077636999</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -8873,19 +8873,19 @@
         <v>11277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6532</v>
+        <v>6957</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18475</v>
+        <v>19147</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01388328229889122</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008042205392611334</v>
+        <v>0.008564968716061525</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02274504815649714</v>
+        <v>0.02357303713465534</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -8894,19 +8894,19 @@
         <v>15075</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8995</v>
+        <v>9053</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23300</v>
+        <v>23976</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.009332694247868365</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005568559192209391</v>
+        <v>0.005604468642519891</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01442443328868559</v>
+        <v>0.01484249931922612</v>
       </c>
     </row>
     <row r="19">
@@ -8923,19 +8923,19 @@
         <v>9685</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4915</v>
+        <v>4732</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18351</v>
+        <v>18124</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01205947996899547</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006120559853364444</v>
+        <v>0.005892018452277075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02285078148440331</v>
+        <v>0.02256811214349087</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -8944,19 +8944,19 @@
         <v>11523</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5126</v>
+        <v>5774</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22994</v>
+        <v>21578</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01418589523160543</v>
+        <v>0.01418589523160544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006310997670237265</v>
+        <v>0.007108879838750532</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02830856166115017</v>
+        <v>0.02656509430581473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -8965,19 +8965,19 @@
         <v>21207</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13487</v>
+        <v>13059</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34699</v>
+        <v>34586</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0131287336020671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008349625535096878</v>
+        <v>0.008084629918709615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02148130911973869</v>
+        <v>0.02141082761242118</v>
       </c>
     </row>
     <row r="20">
@@ -8994,19 +8994,19 @@
         <v>21044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12957</v>
+        <v>12671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33232</v>
+        <v>33344</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02620388148107425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01613454839874158</v>
+        <v>0.01577849092667222</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04138091685460138</v>
+        <v>0.04152075159725795</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -9015,19 +9015,19 @@
         <v>15140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9498</v>
+        <v>9509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23801</v>
+        <v>23903</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0186397761917449</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0116934166446061</v>
+        <v>0.01170672015205948</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02930180518324877</v>
+        <v>0.02942827597257196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -9036,19 +9036,19 @@
         <v>36184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26412</v>
+        <v>25235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52210</v>
+        <v>50066</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02240032193945179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01635056304599105</v>
+        <v>0.01562198337346175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03232149528120647</v>
+        <v>0.03099407030781536</v>
       </c>
     </row>
     <row r="21">
@@ -9065,19 +9065,19 @@
         <v>75348</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59302</v>
+        <v>59924</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93882</v>
+        <v>94281</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09382485052986633</v>
+        <v>0.09382485052986632</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07384351624098863</v>
+        <v>0.07461821757221303</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1169033619762201</v>
+        <v>0.1173998301336763</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -9086,19 +9086,19 @@
         <v>72940</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58761</v>
+        <v>58453</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>89328</v>
+        <v>89022</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08979918771413006</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07234299936854453</v>
+        <v>0.07196354612838163</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1099747630241265</v>
+        <v>0.1095986044521328</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>163</v>
@@ -9107,19 +9107,19 @@
         <v>148288</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>127611</v>
+        <v>124229</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>173544</v>
+        <v>172436</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09180057302070091</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07899970183724052</v>
+        <v>0.07690599311301946</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1074354515247163</v>
+        <v>0.1067495048908317</v>
       </c>
     </row>
     <row r="22">
@@ -9140,19 +9140,19 @@
         <v>149282</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130629</v>
+        <v>131510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169774</v>
+        <v>171875</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1507808592208193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1319405790092472</v>
+        <v>0.132829581946968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1714784255527379</v>
+        <v>0.173600225022508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>330</v>
@@ -9161,19 +9161,19 @@
         <v>189700</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>170782</v>
+        <v>171766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210072</v>
+        <v>211406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1695204896138276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1526142660439918</v>
+        <v>0.153493991613563</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.187724925870092</v>
+        <v>0.1889167713777437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>544</v>
@@ -9182,19 +9182,19 @@
         <v>338983</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>313628</v>
+        <v>312112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>367048</v>
+        <v>369001</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1607236718170872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1487022244461178</v>
+        <v>0.1479834311060882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1740303650597918</v>
+        <v>0.17495647594967</v>
       </c>
     </row>
     <row r="23">
@@ -9211,19 +9211,19 @@
         <v>71169</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57469</v>
+        <v>56217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90420</v>
+        <v>88405</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07188307266420543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05804555524241464</v>
+        <v>0.05678139407380152</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09132801214167742</v>
+        <v>0.08929247605215813</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -9232,19 +9232,19 @@
         <v>81904</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>68764</v>
+        <v>68847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97010</v>
+        <v>97275</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07319119476242164</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06144866798640083</v>
+        <v>0.061522929522504</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08669054869679725</v>
+        <v>0.08692732883808124</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>217</v>
@@ -9253,19 +9253,19 @@
         <v>153073</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133034</v>
+        <v>133515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>176950</v>
+        <v>175109</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07257713186403113</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06307617461547686</v>
+        <v>0.06330411150688775</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08389806257101616</v>
+        <v>0.08302543824685112</v>
       </c>
     </row>
     <row r="24">
@@ -9282,19 +9282,19 @@
         <v>6457</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3110</v>
+        <v>2630</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12345</v>
+        <v>11659</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006521449874431608</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003141312832238773</v>
+        <v>0.002656445731158737</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01246932131683135</v>
+        <v>0.01177571214676794</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -9303,19 +9303,19 @@
         <v>13121</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7668</v>
+        <v>8142</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21020</v>
+        <v>21024</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01172554704726354</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00685217984580587</v>
+        <v>0.00727582872904015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01878414721649948</v>
+        <v>0.01878720942997936</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -9324,19 +9324,19 @@
         <v>19578</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13451</v>
+        <v>12421</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29383</v>
+        <v>28628</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009282622951865445</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006377374316568377</v>
+        <v>0.005889003865842143</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01393153368308056</v>
+        <v>0.01357336773719216</v>
       </c>
     </row>
     <row r="25">
@@ -9353,19 +9353,19 @@
         <v>4863</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1725</v>
+        <v>1536</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10775</v>
+        <v>11385</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004912204239804802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001742021302023015</v>
+        <v>0.001551593943043108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01088269072328461</v>
+        <v>0.01149939704797971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -9374,19 +9374,19 @@
         <v>4138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1720</v>
+        <v>1701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8622</v>
+        <v>9150</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003697993936102324</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001537286627491579</v>
+        <v>0.001519671644407062</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007705080024936057</v>
+        <v>0.00817663462797007</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -9395,19 +9395,19 @@
         <v>9002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4856</v>
+        <v>4318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16440</v>
+        <v>15894</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.004267972456734229</v>
+        <v>0.00426797245673423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00230220453552956</v>
+        <v>0.002047104998156756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.007794813744450913</v>
+        <v>0.007535828484954032</v>
       </c>
     </row>
     <row r="26">
@@ -9424,19 +9424,19 @@
         <v>40587</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29851</v>
+        <v>30534</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55440</v>
+        <v>56099</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04099408637603077</v>
+        <v>0.04099408637603076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03015062183213312</v>
+        <v>0.03084011465318334</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0559966692594769</v>
+        <v>0.05666251344304592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -9445,19 +9445,19 @@
         <v>49766</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39004</v>
+        <v>38965</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63051</v>
+        <v>63211</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.04447225860780178</v>
+        <v>0.04447225860780179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0348547450253859</v>
+        <v>0.034820117871796</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05634411538129515</v>
+        <v>0.05648651664843529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>107</v>
@@ -9466,19 +9466,19 @@
         <v>90353</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74462</v>
+        <v>74030</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108795</v>
+        <v>109972</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04283952377008657</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03530523013078518</v>
+        <v>0.03510011224967259</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05158359171782302</v>
+        <v>0.05214154714946916</v>
       </c>
     </row>
     <row r="27">
@@ -9495,19 +9495,19 @@
         <v>74470</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>59820</v>
+        <v>60664</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>90655</v>
+        <v>92074</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07521786636237503</v>
+        <v>0.07521786636237501</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06042059569834939</v>
+        <v>0.06127310581200831</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09156466485673118</v>
+        <v>0.09299853157274669</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>125</v>
@@ -9516,19 +9516,19 @@
         <v>84367</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>70702</v>
+        <v>71652</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>99065</v>
+        <v>100689</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0753924643277134</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06318064820288377</v>
+        <v>0.06402949367916112</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08852676828049112</v>
+        <v>0.08997760550658639</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>214</v>
@@ -9537,19 +9537,19 @@
         <v>158838</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>138291</v>
+        <v>139244</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>181205</v>
+        <v>181225</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07531050398716493</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06556870789133372</v>
+        <v>0.06602065162630416</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0859154618839033</v>
+        <v>0.08592514331774519</v>
       </c>
     </row>
     <row r="28">
@@ -9570,19 +9570,19 @@
         <v>463037</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>430408</v>
+        <v>430717</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>503957</v>
+        <v>502732</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1310694983735547</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1218333246614174</v>
+        <v>0.1219206995011497</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1426525193764617</v>
+        <v>0.1423055821761036</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1127</v>
@@ -9591,19 +9591,19 @@
         <v>603015</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>567558</v>
+        <v>570855</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>634275</v>
+        <v>638812</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1613653037301531</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1518771270525234</v>
+        <v>0.1527594749014992</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1697305658404291</v>
+        <v>0.1709446230161244</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1791</v>
@@ -9612,19 +9612,19 @@
         <v>1066052</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1014986</v>
+        <v>1013873</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1115141</v>
+        <v>1118704</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1466428763272692</v>
+        <v>0.1466428763272691</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1396183588121367</v>
+        <v>0.1394652620701939</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1533954659968922</v>
+        <v>0.1538854691637485</v>
       </c>
     </row>
     <row r="29">
@@ -9641,19 +9641,19 @@
         <v>197102</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>173856</v>
+        <v>170807</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>225381</v>
+        <v>221870</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05579259970177885</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04921247863461222</v>
+        <v>0.04834947732354042</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06379730693654856</v>
+        <v>0.0628036006518419</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>393</v>
@@ -9662,19 +9662,19 @@
         <v>236290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>212112</v>
+        <v>212856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>259906</v>
+        <v>263273</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06323070035731788</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05676079775955297</v>
+        <v>0.05695966577077938</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06955029770133439</v>
+        <v>0.07045131145845128</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>625</v>
@@ -9683,19 +9683,19 @@
         <v>433392</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>399231</v>
+        <v>395673</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>470991</v>
+        <v>465968</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05961611095698471</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05491706575460673</v>
+        <v>0.05442755227088842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06478809320547968</v>
+        <v>0.06409718517103329</v>
       </c>
     </row>
     <row r="30">
@@ -9712,19 +9712,19 @@
         <v>23043</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14270</v>
+        <v>14525</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35165</v>
+        <v>36734</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006522695769400038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004039313738757862</v>
+        <v>0.004111549209080002</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009954095389017668</v>
+        <v>0.01039810881097946</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -9733,19 +9733,19 @@
         <v>49281</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39013</v>
+        <v>38739</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62631</v>
+        <v>62922</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01318743322175254</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01043969809750193</v>
+        <v>0.01036646240382793</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01675978863905721</v>
+        <v>0.01683789826747833</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>89</v>
@@ -9754,19 +9754,19 @@
         <v>72324</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57640</v>
+        <v>58281</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>90662</v>
+        <v>91548</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009948664285043259</v>
+        <v>0.009948664285043258</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007928780696614585</v>
+        <v>0.008016949014347531</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0124712331730878</v>
+        <v>0.01259300510428923</v>
       </c>
     </row>
     <row r="31">
@@ -9783,19 +9783,19 @@
         <v>32872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22482</v>
+        <v>22328</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48936</v>
+        <v>48972</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.009304857811204256</v>
+        <v>0.009304857811204255</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00636393247469071</v>
+        <v>0.006320184992850576</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01385215385745679</v>
+        <v>0.01386230002536737</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -9804,19 +9804,19 @@
         <v>39162</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29252</v>
+        <v>29597</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53622</v>
+        <v>54760</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01047963234946083</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007827818658528562</v>
+        <v>0.007920205978707384</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01434917173141325</v>
+        <v>0.01465375677489759</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>77</v>
@@ -9825,19 +9825,19 @@
         <v>72034</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>56135</v>
+        <v>56363</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>94042</v>
+        <v>92692</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.009908743652142475</v>
+        <v>0.009908743652142471</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007721699397380198</v>
+        <v>0.00775315108588155</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01293613886144544</v>
+        <v>0.01275045990228167</v>
       </c>
     </row>
     <row r="32">
@@ -9854,19 +9854,19 @@
         <v>94807</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>77107</v>
+        <v>73806</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>116552</v>
+        <v>114932</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02683651217344462</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02182617622833618</v>
+        <v>0.02089193858226295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03299166697430309</v>
+        <v>0.03253311690448223</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>154</v>
@@ -9875,19 +9875,19 @@
         <v>117402</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>98942</v>
+        <v>98298</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>137273</v>
+        <v>135791</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.03141639788085809</v>
+        <v>0.03141639788085808</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0264766652214271</v>
+        <v>0.02630419478267618</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03673404802342851</v>
+        <v>0.03633725390636475</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>243</v>
@@ -9896,19 +9896,19 @@
         <v>212209</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>184874</v>
+        <v>184979</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>239776</v>
+        <v>243717</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02919077509092901</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0254306509351778</v>
+        <v>0.0254451684868279</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03298286601964585</v>
+        <v>0.03352493330990992</v>
       </c>
     </row>
     <row r="33">
@@ -9925,19 +9925,19 @@
         <v>277278</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>245485</v>
+        <v>245981</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>311814</v>
+        <v>312358</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07848759188355858</v>
+        <v>0.07848759188355856</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06948798926890647</v>
+        <v>0.06962842548003721</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08826347350438817</v>
+        <v>0.08841763022063404</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>438</v>
@@ -9946,19 +9946,19 @@
         <v>293546</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>266085</v>
+        <v>265517</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>322812</v>
+        <v>320704</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07855222315621653</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.071203822961588</v>
+        <v>0.07105170135633329</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08638381948184316</v>
+        <v>0.08581954980200397</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>725</v>
@@ -9967,19 +9967,19 @@
         <v>570824</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>531303</v>
+        <v>530624</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>613990</v>
+        <v>617581</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.07852081520358206</v>
+        <v>0.07852081520358205</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07308447410665245</v>
+        <v>0.07299098884762817</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08445853315539513</v>
+        <v>0.08495260955912377</v>
       </c>
     </row>
     <row r="34">
